--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -132,16 +132,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>le10</t>
-  </si>
-  <si>
     <t>(0-10)</t>
   </si>
   <si>
     <t>0-10 operationer</t>
   </si>
   <si>
-    <t>11-25</t>
+    <t>2</t>
   </si>
   <si>
     <t>(11-25)</t>
@@ -150,7 +147,7 @@
     <t>11-25 operationer</t>
   </si>
   <si>
-    <t>26-50</t>
+    <t>3</t>
   </si>
   <si>
     <t>(26-50)</t>
@@ -159,7 +156,7 @@
     <t>26-50 operationer</t>
   </si>
   <si>
-    <t>51-75</t>
+    <t>4</t>
   </si>
   <si>
     <t>(51-75)</t>
@@ -168,16 +165,13 @@
     <t>51-75 operationer</t>
   </si>
   <si>
-    <t>76-100</t>
+    <t>5</t>
   </si>
   <si>
     <t>(76-100)</t>
   </si>
   <si>
     <t>76-100 operationer</t>
-  </si>
-  <si>
-    <t>gt100</t>
   </si>
   <si>
     <t>(&gt;100)</t>
@@ -517,13 +511,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -531,13 +525,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -545,13 +539,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -559,13 +553,13 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -573,13 +567,13 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="D6" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +581,13 @@
         <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Operationserfaring.xlsx
+++ b/fhir/CodeSystem-Operationserfaring.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -132,13 +132,16 @@
     <t>1</t>
   </si>
   <si>
+    <t>le10</t>
+  </si>
+  <si>
     <t>(0-10)</t>
   </si>
   <si>
     <t>0-10 operationer</t>
   </si>
   <si>
-    <t>2</t>
+    <t>11-25</t>
   </si>
   <si>
     <t>(11-25)</t>
@@ -147,7 +150,7 @@
     <t>11-25 operationer</t>
   </si>
   <si>
-    <t>3</t>
+    <t>26-50</t>
   </si>
   <si>
     <t>(26-50)</t>
@@ -156,7 +159,7 @@
     <t>26-50 operationer</t>
   </si>
   <si>
-    <t>4</t>
+    <t>51-75</t>
   </si>
   <si>
     <t>(51-75)</t>
@@ -165,13 +168,16 @@
     <t>51-75 operationer</t>
   </si>
   <si>
-    <t>5</t>
+    <t>76-100</t>
   </si>
   <si>
     <t>(76-100)</t>
   </si>
   <si>
     <t>76-100 operationer</t>
+  </si>
+  <si>
+    <t>gt100</t>
   </si>
   <si>
     <t>(&gt;100)</t>
@@ -511,13 +517,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -525,13 +531,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -539,13 +545,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -553,13 +559,13 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -567,13 +573,13 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -581,13 +587,13 @@
         <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
